--- a/medicine/Psychotrope/Biérologie/Biérologie.xlsx
+++ b/medicine/Psychotrope/Biérologie/Biérologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A9rologie</t>
+          <t>Biérologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biérologie (néologisme inventé par le comédien belge Ronny Coutteure) ou zythologie (mot composé des mots grecs ζῦθος, zythos (bière) et λόγος logos (étude, discours)) est la discipline qui se consacre à l'étude de la bière, du brassage et des brasseries, tant au point de vue historique, que technique ou gustatif.
 Un biérologue — ou zythologue Écouter — est un connaisseur de la bière et de sa dégustation ; comme un sommelier, il est capable de dire quelle bière est en concordance avec quel plat (food pairing en anglais). Et comme un œnologue, il maîtrise les étapes chimique et biochimique des processus de fabrication afin d'en comprendre les effets sur le produit fini.
